--- a/slyt_backend/data/index_compare.xlsx
+++ b/slyt_backend/data/index_compare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,24 +133,7 @@
     <t>单井地面工程投资</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原油自用率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（指标数值低表示运行好）</t>
-    </r>
+    <t>原油自用率</t>
   </si>
   <si>
     <t>达标率指标</t>
@@ -159,23 +142,7 @@
     <t>集输密闭率</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>原油含水率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（指标数值低表示运行好）</t>
-    </r>
+    <t>原油含水率</t>
   </si>
   <si>
     <t>原油稳定率</t>
@@ -211,62 +178,28 @@
     <t>注汽站实际负荷率</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吨油处理能耗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（指标数值低表示运行好）</t>
-    </r>
+    <t>吨油处理能耗</t>
   </si>
   <si>
     <t>能耗成本指标</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吨水处理能耗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（指标数值低表示运行好）</t>
-    </r>
-  </si>
-  <si>
-    <t>单位原油处理药剂量（万吨原油药剂耗量）（指标数值低表示运行好）</t>
-  </si>
-  <si>
-    <t>单位水处理药剂量（万吨水药剂耗量）（指标数值低表示运行好）</t>
-  </si>
-  <si>
-    <t>注水用电标耗（指标数值低表示运行好）</t>
+    <t>吨水处理能耗</t>
+  </si>
+  <si>
+    <t>单位原油处理药剂量</t>
+  </si>
+  <si>
+    <t>单位水处理药剂量</t>
+  </si>
+  <si>
+    <t>注水用电标耗</t>
   </si>
   <si>
     <t>吨汽能耗</t>
   </si>
   <si>
-    <t>单位化学驱油田原油生产药剂量（万吨原油药剂耗量）</t>
+    <t>单位化学驱油田原油生产药剂量</t>
   </si>
   <si>
     <t>单位油田油气生产新水量</t>
@@ -1355,17 +1288,17 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="47.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="7.37962962962963" customWidth="1"/>
+    <col min="9" max="9" width="13.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:9">
